--- a/data/2023-04-01_nga_summary.xlsx
+++ b/data/2023-04-01_nga_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sepmein/x/projects/nga/2022-wmr-targets/NGA 2022 WMR Supplement Targets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0489DBC2-C730-2848-95EE-EBF1D5A10026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9654F8B0-3095-7F4F-A298-CAC8C9F0C175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15760" yWindow="-21100" windowWidth="18560" windowHeight="19700" xr2:uid="{4A8FE4DE-F9BA-FF49-AA89-6BBEE7BFFCA4}"/>
   </bookViews>
@@ -834,10 +834,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA78874A-EAEE-9C49-BAE5-3E6FB25A5118}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="R36" sqref="R36"/>
+      <selection pane="topRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -919,7 +919,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="272" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
